--- a/LeadAssesment.xlsx
+++ b/LeadAssesment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.TRANSITUSNEXGEN.000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467D4D2E-9203-49F0-9B46-C8F5101B0166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0C3500-AAD2-4FA3-AB35-00E57CD928D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -229,7 +229,13 @@
     <t>User should be able to verify Rating Field</t>
   </si>
   <si>
-    <t>Approved</t>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testasdsda</t>
   </si>
 </sst>
 </file>
@@ -604,25 +610,25 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="38.81640625" customWidth="1"/>
-    <col min="8" max="8" width="58.26953125" customWidth="1"/>
-    <col min="9" max="9" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" customWidth="1"/>
+    <col min="8" max="8" width="58.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -676,8 +682,11 @@
       <c r="I2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>16</v>
       </c>
@@ -688,7 +697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>19</v>
       </c>
@@ -699,7 +708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>22</v>
       </c>
@@ -710,7 +719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>25</v>
       </c>
@@ -721,7 +730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>28</v>
       </c>
@@ -732,7 +741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>31</v>
       </c>
@@ -743,7 +752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>34</v>
       </c>
@@ -754,7 +763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>37</v>
       </c>
@@ -765,7 +774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>40</v>
       </c>
@@ -776,7 +785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>43</v>
       </c>
@@ -787,7 +796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>46</v>
       </c>
@@ -798,7 +807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>49</v>
       </c>
@@ -809,7 +818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>52</v>
       </c>
@@ -820,7 +829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>55</v>
       </c>
@@ -831,7 +840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>58</v>
       </c>
@@ -842,7 +851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>61</v>
       </c>
@@ -853,7 +862,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -872,8 +881,11 @@
       <c r="I19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>16</v>
       </c>
@@ -884,7 +896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>19</v>
       </c>
@@ -895,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>22</v>
       </c>
@@ -906,7 +918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>25</v>
       </c>
@@ -917,7 +929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>28</v>
       </c>
@@ -928,7 +940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>31</v>
       </c>
@@ -939,7 +951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>34</v>
       </c>

--- a/LeadAssesment.xlsx
+++ b/LeadAssesment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CAF9EC-5E9F-482C-8453-D92CB6E433B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60853C1-FF7A-4EC6-9ADB-76C630C8850A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -241,7 +241,13 @@
     <t>User should be able to verify Rating Field</t>
   </si>
   <si>
-    <t>Approved</t>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>eerere</t>
   </si>
 </sst>
 </file>
@@ -616,25 +622,25 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" customWidth="1"/>
-    <col min="8" max="8" width="58.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" customWidth="1"/>
+    <col min="8" max="8" width="58.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -688,11 +694,14 @@
       <c r="I2" t="s">
         <v>73</v>
       </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
       <c r="K2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>17</v>
       </c>
@@ -706,7 +715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>20</v>
       </c>
@@ -717,7 +726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
         <v>23</v>
       </c>
@@ -728,7 +737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>26</v>
       </c>
@@ -739,7 +748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>29</v>
       </c>
@@ -750,7 +759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>32</v>
       </c>
@@ -761,7 +770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>35</v>
       </c>
@@ -772,7 +781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>38</v>
       </c>
@@ -783,7 +792,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>41</v>
       </c>
@@ -794,7 +803,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>44</v>
       </c>
@@ -805,7 +814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>47</v>
       </c>
@@ -816,7 +825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>50</v>
       </c>
@@ -827,7 +836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>53</v>
       </c>
@@ -838,7 +847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>56</v>
       </c>
@@ -849,7 +858,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>59</v>
       </c>
@@ -860,7 +869,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>62</v>
       </c>
@@ -871,7 +880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -890,8 +899,11 @@
       <c r="I19" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>17</v>
       </c>
@@ -905,7 +917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>20</v>
       </c>
@@ -916,7 +928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>23</v>
       </c>
@@ -927,7 +939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>26</v>
       </c>
@@ -938,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>29</v>
       </c>
@@ -949,7 +961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>32</v>
       </c>
@@ -960,7 +972,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>35</v>
       </c>

--- a/LeadAssesment.xlsx
+++ b/LeadAssesment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEE5EAF-DA7B-4687-8069-C38D5B02AB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58413FF4-E3F9-4DA3-B5C3-9A1948FF89B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
     <t>Rejected</t>
   </si>
   <si>
-    <t>test</t>
+    <t>tet</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -894,10 +897,7 @@
         <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">

--- a/LeadAssesment.xlsx
+++ b/LeadAssesment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58413FF4-E3F9-4DA3-B5C3-9A1948FF89B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2141086-99BE-499A-A5C2-7129BBECD2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -242,12 +242,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>tet</t>
   </si>
 </sst>
 </file>
@@ -622,7 +616,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +686,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>

--- a/LeadAssesment.xlsx
+++ b/LeadAssesment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2141086-99BE-499A-A5C2-7129BBECD2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E532C03F-8821-4CD8-A6ED-0779FE7B9F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>testingg</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +692,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>

--- a/LeadAssesment.xlsx
+++ b/LeadAssesment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E532C03F-8821-4CD8-A6ED-0779FE7B9F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DDC1C5-001F-4734-B246-7CFB4A540E57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -242,12 +242,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>testingg</t>
   </si>
 </sst>
 </file>
@@ -622,7 +616,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +686,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>

--- a/LeadAssesment.xlsx
+++ b/LeadAssesment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DDC1C5-001F-4734-B246-7CFB4A540E57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E532C03F-8821-4CD8-A6ED-0779FE7B9F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>testingg</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +692,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>

--- a/LeadAssesment.xlsx
+++ b/LeadAssesment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5821218B-31B8-4998-8FBB-CEDABF3A781C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E532C03F-8821-4CD8-A6ED-0779FE7B9F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -67,172 +67,187 @@
     <t>Url</t>
   </si>
   <si>
+    <t>Url should be launched True</t>
+  </si>
+  <si>
+    <t>Modified Step</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Enter UserNames232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text should be ablee to enter User Name </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter Password </t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Click SignIn</t>
+  </si>
+  <si>
+    <t>User should be able to Click on SignIn</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Click on Lead Tab</t>
+  </si>
+  <si>
+    <t>User should be able to Click on Lead Tab</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Close the dialogue box</t>
+  </si>
+  <si>
+    <t>Dialogue box should get close</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>click on New button</t>
+  </si>
+  <si>
+    <t>User should be able to Click on New Button</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Enter value in the last name</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in lastname</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Enter value in the company</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in company</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Enter value in the lead source</t>
+  </si>
+  <si>
+    <t>User Should be able to enter the data in lead source</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Enter value in the Industry</t>
+  </si>
+  <si>
+    <t>User Should be able to enter the data in Industry</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Enter value in the Projected Project Start</t>
+  </si>
+  <si>
+    <t>User Should be able to enter the data in Projected Project Start</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Enter value in the Lead Status</t>
+  </si>
+  <si>
+    <t>User Should be able to enter the data in the lead status</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Click on save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to Click on save </t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Store the Name using Buffer</t>
+  </si>
+  <si>
+    <t>Created Name should be stored in the buffer</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Click on profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dropdown should get opens </t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on logout </t>
+  </si>
+  <si>
+    <t>Salesforce should get logout successfully</t>
+  </si>
+  <si>
+    <t>TestScenario_2</t>
+  </si>
+  <si>
+    <t>TestScenario_2.TestCase_1</t>
+  </si>
+  <si>
     <t>Url should be launched</t>
   </si>
   <si>
-    <t>Modified Step</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Enter UserName</t>
   </si>
   <si>
     <t xml:space="preserve">User should be able to enter User Name </t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Enter Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to enter Password </t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Click SignIn</t>
-  </si>
-  <si>
-    <t>User should be able to Click on SignIn</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Click on Lead Tab</t>
-  </si>
-  <si>
-    <t>User should be able to Click on Lead Tab</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Close the dialogue box</t>
-  </si>
-  <si>
-    <t>Dialogue box should get close</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>click on New button</t>
-  </si>
-  <si>
-    <t>User should be able to Click on New Button</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Enter value in the last name</t>
-  </si>
-  <si>
-    <t>User should be able to enter the data in lastname</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Enter value in the company</t>
-  </si>
-  <si>
-    <t>User should be able to enter the data in company</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Enter value in the lead source</t>
-  </si>
-  <si>
-    <t>User Should be able to enter the data in lead source</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Enter value in the Industry</t>
-  </si>
-  <si>
-    <t>User Should be able to enter the data in Industry</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Enter value in the Projected Project Start</t>
-  </si>
-  <si>
-    <t>User Should be able to enter the data in Projected Project Start</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Enter value in the Lead Status</t>
-  </si>
-  <si>
-    <t>User Should be able to enter the data in the lead status</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Click on save button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to Click on save </t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Store the Name using Buffer</t>
-  </si>
-  <si>
-    <t>Created Name should be stored in the buffer</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Click on profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dropdown should get opens </t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on logout </t>
-  </si>
-  <si>
-    <t>Salesforce should get logout successfully</t>
-  </si>
-  <si>
-    <t>TestScenario_2</t>
-  </si>
-  <si>
-    <t>TestScenario_2.TestCase_1</t>
+    <t>User should be able to click on Lead record</t>
+  </si>
+  <si>
+    <t>Verify Rating</t>
+  </si>
+  <si>
+    <t>User should be able to verify Rating Field</t>
   </si>
   <si>
     <t>Approved</t>
   </si>
   <si>
-    <t>User should be able to click on Lead record</t>
-  </si>
-  <si>
-    <t>Verify Rating</t>
-  </si>
-  <si>
-    <t>User should be able to verify Rating Field</t>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>testingg</t>
   </si>
 </sst>
 </file>
@@ -606,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +692,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -693,6 +711,9 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
@@ -837,7 +858,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>59</v>
       </c>
@@ -848,7 +869,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>62</v>
       </c>
@@ -859,7 +880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -873,24 +894,27 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>20</v>
       </c>
@@ -901,7 +925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>23</v>
       </c>
@@ -912,7 +936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>26</v>
       </c>
@@ -923,7 +947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>29</v>
       </c>
@@ -934,7 +958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>32</v>
       </c>
@@ -942,18 +966,18 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/LeadAssesment.xlsx
+++ b/LeadAssesment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149756BD-1D57-4810-935D-F5AD5A6BFC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42026420-D1BF-4DFA-A6F9-DA2442B0FD96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>

--- a/LeadAssesment.xlsx
+++ b/LeadAssesment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42026420-D1BF-4DFA-A6F9-DA2442B0FD96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BB6CCC-2601-49DC-9DBE-A4FE95654BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Url should be launched</t>
-  </si>
-  <si>
-    <t>Reworked</t>
   </si>
   <si>
     <t>2</t>
@@ -615,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,197 +683,197 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>49</v>
-      </c>
-      <c r="H13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
         <v>51</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>52</v>
-      </c>
-      <c r="H14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
         <v>54</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
         <v>57</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>58</v>
-      </c>
-      <c r="H16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
         <v>60</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>61</v>
-      </c>
-      <c r="H17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>64</v>
-      </c>
-      <c r="H18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
         <v>66</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -888,87 +885,87 @@
         <v>15</v>
       </c>
       <c r="I19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s">
         <v>72</v>
-      </c>
-      <c r="J19" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
         <v>21</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>22</v>
-      </c>
-      <c r="H21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
         <v>24</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>25</v>
-      </c>
-      <c r="H22" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
         <v>27</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
         <v>30</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>31</v>
-      </c>
-      <c r="H24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
         <v>70</v>
-      </c>
-      <c r="H26" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -988,197 +985,197 @@
         <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
         <v>17</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>18</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>19</v>
-      </c>
-      <c r="K28" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
         <v>21</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>22</v>
-      </c>
-      <c r="H29" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
         <v>24</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>25</v>
-      </c>
-      <c r="H30" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
         <v>27</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>28</v>
-      </c>
-      <c r="H31" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
         <v>30</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>31</v>
       </c>
-      <c r="H32" t="s">
-        <v>32</v>
-      </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
         <v>33</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>34</v>
-      </c>
-      <c r="H33" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
         <v>36</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>37</v>
-      </c>
-      <c r="H34" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" t="s">
         <v>39</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>40</v>
-      </c>
-      <c r="H35" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
         <v>42</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>43</v>
-      </c>
-      <c r="H36" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
         <v>45</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s">
         <v>48</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>49</v>
-      </c>
-      <c r="H38" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" t="s">
         <v>51</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>52</v>
-      </c>
-      <c r="H39" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s">
         <v>54</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>55</v>
-      </c>
-      <c r="H40" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
         <v>57</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>58</v>
-      </c>
-      <c r="H41" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
         <v>60</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>61</v>
-      </c>
-      <c r="H42" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" t="s">
         <v>63</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>64</v>
-      </c>
-      <c r="H43" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
         <v>66</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1190,87 +1187,87 @@
         <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
         <v>17</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>18</v>
       </c>
-      <c r="H45" t="s">
+      <c r="K45" t="s">
         <v>19</v>
-      </c>
-      <c r="K45" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
         <v>21</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>22</v>
-      </c>
-      <c r="H46" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
         <v>24</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>25</v>
-      </c>
-      <c r="H47" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
         <v>27</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>28</v>
-      </c>
-      <c r="H48" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
         <v>30</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>31</v>
-      </c>
-      <c r="H49" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" t="s">
         <v>70</v>
-      </c>
-      <c r="H51" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/LeadAssesment.xlsx
+++ b/LeadAssesment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD9D2D5-F762-427B-954B-B2329D80543C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30F69C9-7526-4EE8-8B49-94EEF77DD3A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="74">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>User should be able to verify Rating Field</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testyserebr</t>
   </si>
 </sst>
 </file>
@@ -606,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +888,10 @@
         <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>71</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -979,7 +991,10 @@
         <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>71</v>
+      </c>
+      <c r="J27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
